--- a/ig/nr-prepare-release/StructureDefinition-pdsm-find-lists-response.xlsx
+++ b/ig/nr-prepare-release/StructureDefinition-pdsm-find-lists-response.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4026" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4026" uniqueCount="304">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-27T13:11:24+00:00</t>
+    <t>2023-09-01T08:02:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -137,6 +137,10 @@
   </si>
   <si>
     <t>A container for a collection of resources.</t>
+  </si>
+  <si>
+    <t>bdl-1:total only when a search or history {total.empty() or (type = 'searchset') or (type = 'history')}
+bdl-2:entry.search only when a search {entry.search.empty() or (type = 'searchset')}bdl-3:entry.request mandatory for batch/transaction/history, otherwise prohibited {entry.all(request.exists() = (%resource.type = 'batch' or %resource.type = 'transaction' or %resource.type = 'history'))}bdl-4:entry.response mandatory for batch-response/transaction-response/history, otherwise prohibited {entry.all(response.exists() = (%resource.type = 'batch-response' or %resource.type = 'transaction-response' or %resource.type = 'history'))}bdl-7:FullUrl must be unique in a bundle, or else entries with the same fullUrl must have different meta.versionId (except in history bundles) {(type = 'history') or entry.where(fullUrl.exists()).select(fullUrl&amp;resource.meta.versionId).isDistinct()}bdl-9:A document must have an identifier with a system and a value {type = 'document' implies (identifier.system.exists() and identifier.value.exists())}bdl-10:A document must have a date {type = 'document' implies (timestamp.hasValue())}bdl-11:A document must have a Composition as the first resource {type = 'document' implies entry.first().resource.is(Composition)}bdl-12:A message must have a MessageHeader as the first resource {type = 'message' implies entry.first().resource.is(MessageHeader)}</t>
   </si>
   <si>
     <t>N/A</t>
@@ -1407,16 +1411,16 @@
         <v>35</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AL1" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AM1" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AN1" t="s" s="2">
         <v>35</v>
@@ -1424,10 +1428,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1438,7 +1442,7 @@
         <v>36</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>35</v>
@@ -1447,19 +1451,19 @@
         <v>35</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -1509,13 +1513,13 @@
         <v>35</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>35</v>
@@ -1538,10 +1542,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1552,7 +1556,7 @@
         <v>36</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>35</v>
@@ -1561,16 +1565,16 @@
         <v>35</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1621,19 +1625,19 @@
         <v>35</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>35</v>
@@ -1650,10 +1654,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1664,28 +1668,28 @@
         <v>36</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>35</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -1735,19 +1739,19 @@
         <v>35</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>35</v>
@@ -1764,10 +1768,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1778,7 +1782,7 @@
         <v>36</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>35</v>
@@ -1790,16 +1794,16 @@
         <v>35</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1825,13 +1829,13 @@
         <v>35</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>35</v>
@@ -1849,19 +1853,19 @@
         <v>35</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>35</v>
@@ -1878,10 +1882,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1892,7 +1896,7 @@
         <v>36</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>35</v>
@@ -1901,19 +1905,19 @@
         <v>35</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -1963,19 +1967,19 @@
         <v>35</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>35</v>
@@ -1984,18 +1988,18 @@
         <v>35</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -2003,10 +2007,10 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>35</v>
@@ -2015,19 +2019,19 @@
         <v>35</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2035,7 +2039,7 @@
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="S7" t="s" s="2">
         <v>35</v>
@@ -2053,13 +2057,13 @@
         <v>35</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AA7" t="s" s="2">
         <v>35</v>
@@ -2077,19 +2081,19 @@
         <v>35</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>35</v>
@@ -2101,15 +2105,15 @@
         <v>35</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2120,7 +2124,7 @@
         <v>36</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>35</v>
@@ -2129,19 +2133,19 @@
         <v>35</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2191,19 +2195,19 @@
         <v>35</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>35</v>
@@ -2212,18 +2216,18 @@
         <v>35</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2231,10 +2235,10 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>35</v>
@@ -2243,19 +2247,19 @@
         <v>35</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2305,19 +2309,19 @@
         <v>35</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>35</v>
@@ -2334,10 +2338,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2357,19 +2361,19 @@
         <v>35</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -2419,7 +2423,7 @@
         <v>35</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>36</v>
@@ -2431,7 +2435,7 @@
         <v>35</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>35</v>
@@ -2448,10 +2452,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2462,7 +2466,7 @@
         <v>36</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>35</v>
@@ -2474,13 +2478,13 @@
         <v>35</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -2531,13 +2535,13 @@
         <v>35</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>35</v>
@@ -2549,7 +2553,7 @@
         <v>35</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>35</v>
@@ -2560,14 +2564,14 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -2586,16 +2590,16 @@
         <v>35</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2645,7 +2649,7 @@
         <v>35</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>36</v>
@@ -2657,13 +2661,13 @@
         <v>35</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>35</v>
@@ -2674,14 +2678,14 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -2694,25 +2698,25 @@
         <v>35</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>35</v>
@@ -2761,7 +2765,7 @@
         <v>35</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>36</v>
@@ -2773,13 +2777,13 @@
         <v>35</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>35</v>
@@ -2790,10 +2794,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2801,10 +2805,10 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>35</v>
@@ -2813,16 +2817,16 @@
         <v>35</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2873,19 +2877,19 @@
         <v>35</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>35</v>
@@ -2902,10 +2906,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2913,10 +2917,10 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>35</v>
@@ -2925,16 +2929,16 @@
         <v>35</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -2985,19 +2989,19 @@
         <v>35</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>35</v>
@@ -3014,10 +3018,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3037,16 +3041,16 @@
         <v>35</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3085,17 +3089,17 @@
         <v>35</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AC16" s="2"/>
       <c r="AD16" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>36</v>
@@ -3107,7 +3111,7 @@
         <v>35</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>35</v>
@@ -3124,10 +3128,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3138,7 +3142,7 @@
         <v>36</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>35</v>
@@ -3150,13 +3154,13 @@
         <v>35</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3207,13 +3211,13 @@
         <v>35</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>35</v>
@@ -3225,7 +3229,7 @@
         <v>35</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>35</v>
@@ -3236,14 +3240,14 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3262,16 +3266,16 @@
         <v>35</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3321,7 +3325,7 @@
         <v>35</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>36</v>
@@ -3333,13 +3337,13 @@
         <v>35</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>35</v>
@@ -3350,14 +3354,14 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -3370,25 +3374,25 @@
         <v>35</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>35</v>
@@ -3437,7 +3441,7 @@
         <v>35</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>36</v>
@@ -3449,13 +3453,13 @@
         <v>35</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>35</v>
@@ -3466,10 +3470,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3489,16 +3493,16 @@
         <v>35</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K20" t="s" s="2">
         <v>35</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3549,7 +3553,7 @@
         <v>35</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>36</v>
@@ -3561,7 +3565,7 @@
         <v>35</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>35</v>
@@ -3578,10 +3582,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3592,7 +3596,7 @@
         <v>36</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>35</v>
@@ -3601,19 +3605,19 @@
         <v>35</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -3663,19 +3667,19 @@
         <v>35</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>35</v>
@@ -3692,10 +3696,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3706,7 +3710,7 @@
         <v>36</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>35</v>
@@ -3715,16 +3719,16 @@
         <v>35</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3775,13 +3779,13 @@
         <v>35</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>35</v>
@@ -3804,10 +3808,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3818,7 +3822,7 @@
         <v>36</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>35</v>
@@ -3827,16 +3831,16 @@
         <v>35</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -3887,19 +3891,19 @@
         <v>35</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>35</v>
@@ -3916,10 +3920,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3930,7 +3934,7 @@
         <v>36</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>35</v>
@@ -3942,13 +3946,13 @@
         <v>35</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3999,13 +4003,13 @@
         <v>35</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>35</v>
@@ -4017,7 +4021,7 @@
         <v>35</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>35</v>
@@ -4028,14 +4032,14 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4054,16 +4058,16 @@
         <v>35</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4113,7 +4117,7 @@
         <v>35</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>36</v>
@@ -4125,13 +4129,13 @@
         <v>35</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>35</v>
@@ -4142,14 +4146,14 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4162,25 +4166,25 @@
         <v>35</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>35</v>
@@ -4229,7 +4233,7 @@
         <v>35</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>36</v>
@@ -4241,13 +4245,13 @@
         <v>35</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>35</v>
@@ -4258,10 +4262,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4272,7 +4276,7 @@
         <v>36</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>35</v>
@@ -4281,19 +4285,19 @@
         <v>35</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4319,13 +4323,13 @@
         <v>35</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>35</v>
@@ -4343,19 +4347,19 @@
         <v>35</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>35</v>
@@ -4372,10 +4376,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4386,7 +4390,7 @@
         <v>36</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>35</v>
@@ -4395,19 +4399,19 @@
         <v>35</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4457,19 +4461,19 @@
         <v>35</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>35</v>
@@ -4486,10 +4490,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4500,7 +4504,7 @@
         <v>36</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>35</v>
@@ -4509,16 +4513,16 @@
         <v>35</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4569,19 +4573,19 @@
         <v>35</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>35</v>
@@ -4598,10 +4602,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4612,7 +4616,7 @@
         <v>36</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>35</v>
@@ -4624,13 +4628,13 @@
         <v>35</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4681,13 +4685,13 @@
         <v>35</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>35</v>
@@ -4699,7 +4703,7 @@
         <v>35</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>35</v>
@@ -4710,14 +4714,14 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -4736,16 +4740,16 @@
         <v>35</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -4795,7 +4799,7 @@
         <v>35</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>36</v>
@@ -4807,13 +4811,13 @@
         <v>35</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>35</v>
@@ -4824,14 +4828,14 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -4844,25 +4848,25 @@
         <v>35</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>35</v>
@@ -4911,7 +4915,7 @@
         <v>35</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>36</v>
@@ -4923,13 +4927,13 @@
         <v>35</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>35</v>
@@ -4940,10 +4944,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4951,10 +4955,10 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>35</v>
@@ -4963,16 +4967,16 @@
         <v>35</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -4999,13 +5003,13 @@
         <v>35</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>35</v>
@@ -5023,19 +5027,19 @@
         <v>35</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>35</v>
@@ -5052,10 +5056,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5063,10 +5067,10 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>35</v>
@@ -5075,19 +5079,19 @@
         <v>35</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5137,19 +5141,19 @@
         <v>35</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>35</v>
@@ -5166,10 +5170,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5180,7 +5184,7 @@
         <v>36</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>35</v>
@@ -5189,16 +5193,16 @@
         <v>35</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5249,19 +5253,19 @@
         <v>35</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>35</v>
@@ -5278,10 +5282,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5292,7 +5296,7 @@
         <v>36</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>35</v>
@@ -5301,16 +5305,16 @@
         <v>35</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5361,19 +5365,19 @@
         <v>35</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>35</v>
@@ -5390,10 +5394,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5404,7 +5408,7 @@
         <v>36</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>35</v>
@@ -5413,16 +5417,16 @@
         <v>35</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5473,19 +5477,19 @@
         <v>35</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>35</v>
@@ -5502,10 +5506,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5516,7 +5520,7 @@
         <v>36</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>35</v>
@@ -5525,16 +5529,16 @@
         <v>35</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5585,19 +5589,19 @@
         <v>35</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>35</v>
@@ -5614,10 +5618,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5628,7 +5632,7 @@
         <v>36</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>35</v>
@@ -5637,16 +5641,16 @@
         <v>35</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5697,19 +5701,19 @@
         <v>35</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>35</v>
@@ -5726,10 +5730,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5740,7 +5744,7 @@
         <v>36</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>35</v>
@@ -5752,13 +5756,13 @@
         <v>35</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -5809,13 +5813,13 @@
         <v>35</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>35</v>
@@ -5827,7 +5831,7 @@
         <v>35</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>35</v>
@@ -5838,14 +5842,14 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -5864,16 +5868,16 @@
         <v>35</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -5923,7 +5927,7 @@
         <v>35</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>36</v>
@@ -5935,13 +5939,13 @@
         <v>35</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>35</v>
@@ -5952,14 +5956,14 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -5972,25 +5976,25 @@
         <v>35</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>35</v>
@@ -6039,7 +6043,7 @@
         <v>35</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>36</v>
@@ -6051,13 +6055,13 @@
         <v>35</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>35</v>
@@ -6068,10 +6072,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6079,10 +6083,10 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>35</v>
@@ -6091,16 +6095,16 @@
         <v>35</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6151,19 +6155,19 @@
         <v>35</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>35</v>
@@ -6180,10 +6184,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6194,7 +6198,7 @@
         <v>36</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>35</v>
@@ -6203,16 +6207,16 @@
         <v>35</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6263,19 +6267,19 @@
         <v>35</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>35</v>
@@ -6292,10 +6296,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6306,7 +6310,7 @@
         <v>36</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>35</v>
@@ -6315,19 +6319,19 @@
         <v>35</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6377,19 +6381,19 @@
         <v>35</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>35</v>
@@ -6406,10 +6410,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6420,7 +6424,7 @@
         <v>36</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>35</v>
@@ -6429,19 +6433,19 @@
         <v>35</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -6491,19 +6495,19 @@
         <v>35</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>35</v>
@@ -6520,10 +6524,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6534,7 +6538,7 @@
         <v>36</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>35</v>
@@ -6543,19 +6547,19 @@
         <v>35</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -6605,13 +6609,13 @@
         <v>35</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>35</v>
@@ -6634,13 +6638,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D48" t="s" s="2">
         <v>35</v>
@@ -6659,16 +6663,16 @@
         <v>35</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -6719,7 +6723,7 @@
         <v>35</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>36</v>
@@ -6731,7 +6735,7 @@
         <v>35</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>35</v>
@@ -6748,10 +6752,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6762,7 +6766,7 @@
         <v>36</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>35</v>
@@ -6774,13 +6778,13 @@
         <v>35</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -6831,13 +6835,13 @@
         <v>35</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>35</v>
@@ -6849,7 +6853,7 @@
         <v>35</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>35</v>
@@ -6860,14 +6864,14 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -6886,16 +6890,16 @@
         <v>35</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -6945,7 +6949,7 @@
         <v>35</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>36</v>
@@ -6957,13 +6961,13 @@
         <v>35</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>35</v>
@@ -6974,14 +6978,14 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -6994,25 +6998,25 @@
         <v>35</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>35</v>
@@ -7061,7 +7065,7 @@
         <v>35</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>36</v>
@@ -7073,13 +7077,13 @@
         <v>35</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>35</v>
@@ -7090,10 +7094,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7113,16 +7117,16 @@
         <v>35</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K52" t="s" s="2">
         <v>38</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7173,7 +7177,7 @@
         <v>35</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>36</v>
@@ -7185,7 +7189,7 @@
         <v>35</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>35</v>
@@ -7202,10 +7206,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7213,10 +7217,10 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>35</v>
@@ -7225,19 +7229,19 @@
         <v>35</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7287,19 +7291,19 @@
         <v>35</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>35</v>
@@ -7316,21 +7320,21 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>35</v>
@@ -7342,13 +7346,13 @@
         <v>35</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7399,25 +7403,25 @@
         <v>35</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>35</v>
@@ -7428,10 +7432,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7442,7 +7446,7 @@
         <v>36</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>35</v>
@@ -7451,16 +7455,16 @@
         <v>35</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -7511,19 +7515,19 @@
         <v>35</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>35</v>
@@ -7540,10 +7544,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7554,7 +7558,7 @@
         <v>36</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>35</v>
@@ -7566,13 +7570,13 @@
         <v>35</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -7623,13 +7627,13 @@
         <v>35</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>35</v>
@@ -7641,7 +7645,7 @@
         <v>35</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>35</v>
@@ -7652,14 +7656,14 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -7678,16 +7682,16 @@
         <v>35</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -7737,7 +7741,7 @@
         <v>35</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>36</v>
@@ -7749,13 +7753,13 @@
         <v>35</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>35</v>
@@ -7766,14 +7770,14 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -7786,25 +7790,25 @@
         <v>35</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>35</v>
@@ -7853,7 +7857,7 @@
         <v>35</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>36</v>
@@ -7865,13 +7869,13 @@
         <v>35</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>35</v>
@@ -7882,10 +7886,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -7896,7 +7900,7 @@
         <v>36</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>35</v>
@@ -7905,19 +7909,19 @@
         <v>35</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -7943,13 +7947,13 @@
         <v>35</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>35</v>
@@ -7967,19 +7971,19 @@
         <v>35</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>35</v>
@@ -7996,10 +8000,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8010,7 +8014,7 @@
         <v>36</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>35</v>
@@ -8019,19 +8023,19 @@
         <v>35</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8081,19 +8085,19 @@
         <v>35</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>35</v>
@@ -8110,10 +8114,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8124,7 +8128,7 @@
         <v>36</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>35</v>
@@ -8133,16 +8137,16 @@
         <v>35</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8193,19 +8197,19 @@
         <v>35</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>35</v>
@@ -8222,10 +8226,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8236,7 +8240,7 @@
         <v>36</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>35</v>
@@ -8248,13 +8252,13 @@
         <v>35</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8305,13 +8309,13 @@
         <v>35</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>35</v>
@@ -8323,7 +8327,7 @@
         <v>35</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>35</v>
@@ -8334,14 +8338,14 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -8360,16 +8364,16 @@
         <v>35</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -8419,7 +8423,7 @@
         <v>35</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>36</v>
@@ -8431,13 +8435,13 @@
         <v>35</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>35</v>
@@ -8448,14 +8452,14 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -8468,25 +8472,25 @@
         <v>35</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>35</v>
@@ -8535,7 +8539,7 @@
         <v>35</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>36</v>
@@ -8547,13 +8551,13 @@
         <v>35</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>35</v>
@@ -8564,10 +8568,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8575,10 +8579,10 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>35</v>
@@ -8587,16 +8591,16 @@
         <v>35</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -8623,13 +8627,13 @@
         <v>35</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>35</v>
@@ -8647,19 +8651,19 @@
         <v>35</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>35</v>
@@ -8676,10 +8680,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8687,10 +8691,10 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>35</v>
@@ -8699,19 +8703,19 @@
         <v>35</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -8761,19 +8765,19 @@
         <v>35</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>35</v>
@@ -8790,10 +8794,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -8804,7 +8808,7 @@
         <v>36</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>35</v>
@@ -8813,16 +8817,16 @@
         <v>35</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -8873,19 +8877,19 @@
         <v>35</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>35</v>
@@ -8902,10 +8906,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -8916,7 +8920,7 @@
         <v>36</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>35</v>
@@ -8925,16 +8929,16 @@
         <v>35</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -8985,19 +8989,19 @@
         <v>35</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>35</v>
@@ -9014,10 +9018,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9028,7 +9032,7 @@
         <v>36</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>35</v>
@@ -9037,16 +9041,16 @@
         <v>35</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9097,19 +9101,19 @@
         <v>35</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>35</v>
@@ -9126,10 +9130,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9140,7 +9144,7 @@
         <v>36</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>35</v>
@@ -9149,16 +9153,16 @@
         <v>35</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9209,19 +9213,19 @@
         <v>35</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>35</v>
@@ -9238,10 +9242,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9252,7 +9256,7 @@
         <v>36</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>35</v>
@@ -9261,16 +9265,16 @@
         <v>35</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -9321,19 +9325,19 @@
         <v>35</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>35</v>
@@ -9350,10 +9354,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9364,7 +9368,7 @@
         <v>36</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>35</v>
@@ -9376,13 +9380,13 @@
         <v>35</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -9433,13 +9437,13 @@
         <v>35</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>35</v>
@@ -9451,7 +9455,7 @@
         <v>35</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>35</v>
@@ -9462,14 +9466,14 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -9488,16 +9492,16 @@
         <v>35</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -9547,7 +9551,7 @@
         <v>35</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>36</v>
@@ -9559,13 +9563,13 @@
         <v>35</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>35</v>
@@ -9576,14 +9580,14 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -9596,25 +9600,25 @@
         <v>35</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>35</v>
@@ -9663,7 +9667,7 @@
         <v>35</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>36</v>
@@ -9675,13 +9679,13 @@
         <v>35</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>35</v>
@@ -9692,10 +9696,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -9703,10 +9707,10 @@
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>35</v>
@@ -9715,16 +9719,16 @@
         <v>35</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -9775,19 +9779,19 @@
         <v>35</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>35</v>
@@ -9804,10 +9808,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -9818,7 +9822,7 @@
         <v>36</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>35</v>
@@ -9827,16 +9831,16 @@
         <v>35</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -9887,19 +9891,19 @@
         <v>35</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>35</v>
@@ -9916,10 +9920,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -9930,7 +9934,7 @@
         <v>36</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>35</v>
@@ -9939,19 +9943,19 @@
         <v>35</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -10001,19 +10005,19 @@
         <v>35</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>35</v>
@@ -10030,10 +10034,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10044,7 +10048,7 @@
         <v>36</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>35</v>
@@ -10053,19 +10057,19 @@
         <v>35</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -10115,19 +10119,19 @@
         <v>35</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>35</v>
@@ -10144,10 +10148,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10158,7 +10162,7 @@
         <v>36</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>35</v>
@@ -10167,19 +10171,19 @@
         <v>35</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -10229,13 +10233,13 @@
         <v>35</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>35</v>
@@ -10258,13 +10262,13 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D80" t="s" s="2">
         <v>35</v>
@@ -10283,16 +10287,16 @@
         <v>35</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -10343,7 +10347,7 @@
         <v>35</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>36</v>
@@ -10355,7 +10359,7 @@
         <v>35</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>35</v>
@@ -10372,10 +10376,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -10386,7 +10390,7 @@
         <v>36</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>35</v>
@@ -10398,13 +10402,13 @@
         <v>35</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -10455,13 +10459,13 @@
         <v>35</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>35</v>
@@ -10473,7 +10477,7 @@
         <v>35</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>35</v>
@@ -10484,14 +10488,14 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
@@ -10510,16 +10514,16 @@
         <v>35</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -10569,7 +10573,7 @@
         <v>35</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>36</v>
@@ -10581,13 +10585,13 @@
         <v>35</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>35</v>
@@ -10598,14 +10602,14 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
@@ -10618,25 +10622,25 @@
         <v>35</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>35</v>
@@ -10685,7 +10689,7 @@
         <v>35</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>36</v>
@@ -10697,13 +10701,13 @@
         <v>35</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>35</v>
@@ -10714,10 +10718,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -10737,16 +10741,16 @@
         <v>35</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K84" t="s" s="2">
         <v>38</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -10797,7 +10801,7 @@
         <v>35</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>36</v>
@@ -10809,7 +10813,7 @@
         <v>35</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>35</v>
@@ -10826,10 +10830,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -10837,10 +10841,10 @@
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>35</v>
@@ -10849,19 +10853,19 @@
         <v>35</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -10911,19 +10915,19 @@
         <v>35</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>35</v>
@@ -10940,21 +10944,21 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>35</v>
@@ -10966,13 +10970,13 @@
         <v>35</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -11023,25 +11027,25 @@
         <v>35</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>35</v>
@@ -11052,10 +11056,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -11066,7 +11070,7 @@
         <v>36</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>35</v>
@@ -11075,16 +11079,16 @@
         <v>35</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -11135,19 +11139,19 @@
         <v>35</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>35</v>
@@ -11164,10 +11168,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -11178,7 +11182,7 @@
         <v>36</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>35</v>
@@ -11190,13 +11194,13 @@
         <v>35</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -11247,13 +11251,13 @@
         <v>35</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>35</v>
@@ -11265,7 +11269,7 @@
         <v>35</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>35</v>
@@ -11276,14 +11280,14 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
@@ -11302,16 +11306,16 @@
         <v>35</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
@@ -11361,7 +11365,7 @@
         <v>35</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>36</v>
@@ -11373,13 +11377,13 @@
         <v>35</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>35</v>
@@ -11390,14 +11394,14 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
@@ -11410,25 +11414,25 @@
         <v>35</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>35</v>
@@ -11477,7 +11481,7 @@
         <v>35</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>36</v>
@@ -11489,13 +11493,13 @@
         <v>35</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>35</v>
@@ -11506,10 +11510,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -11520,7 +11524,7 @@
         <v>36</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>35</v>
@@ -11529,19 +11533,19 @@
         <v>35</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
@@ -11567,13 +11571,13 @@
         <v>35</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>35</v>
@@ -11591,19 +11595,19 @@
         <v>35</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>35</v>
@@ -11620,10 +11624,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -11634,7 +11638,7 @@
         <v>36</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>35</v>
@@ -11643,19 +11647,19 @@
         <v>35</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -11705,19 +11709,19 @@
         <v>35</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>35</v>
@@ -11734,10 +11738,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -11748,7 +11752,7 @@
         <v>36</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>35</v>
@@ -11757,16 +11761,16 @@
         <v>35</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -11817,19 +11821,19 @@
         <v>35</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>35</v>
@@ -11846,10 +11850,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -11860,7 +11864,7 @@
         <v>36</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>35</v>
@@ -11872,13 +11876,13 @@
         <v>35</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -11929,13 +11933,13 @@
         <v>35</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>35</v>
@@ -11947,7 +11951,7 @@
         <v>35</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>35</v>
@@ -11958,14 +11962,14 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
@@ -11984,16 +11988,16 @@
         <v>35</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
@@ -12043,7 +12047,7 @@
         <v>35</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>36</v>
@@ -12055,13 +12059,13 @@
         <v>35</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>35</v>
@@ -12072,14 +12076,14 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
@@ -12092,25 +12096,25 @@
         <v>35</v>
       </c>
       <c r="I96" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O96" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>35</v>
@@ -12159,7 +12163,7 @@
         <v>35</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>36</v>
@@ -12171,13 +12175,13 @@
         <v>35</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>35</v>
@@ -12188,10 +12192,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -12199,10 +12203,10 @@
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>35</v>
@@ -12211,16 +12215,16 @@
         <v>35</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -12247,13 +12251,13 @@
         <v>35</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Z97" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AA97" t="s" s="2">
         <v>35</v>
@@ -12271,19 +12275,19 @@
         <v>35</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>35</v>
@@ -12300,10 +12304,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -12311,10 +12315,10 @@
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>35</v>
@@ -12323,19 +12327,19 @@
         <v>35</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
@@ -12385,19 +12389,19 @@
         <v>35</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>35</v>
@@ -12414,10 +12418,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -12428,7 +12432,7 @@
         <v>36</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>35</v>
@@ -12437,16 +12441,16 @@
         <v>35</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -12497,19 +12501,19 @@
         <v>35</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>35</v>
@@ -12526,10 +12530,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -12540,7 +12544,7 @@
         <v>36</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>35</v>
@@ -12549,16 +12553,16 @@
         <v>35</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
@@ -12609,19 +12613,19 @@
         <v>35</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>35</v>
@@ -12638,10 +12642,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -12652,7 +12656,7 @@
         <v>36</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>35</v>
@@ -12661,16 +12665,16 @@
         <v>35</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -12721,19 +12725,19 @@
         <v>35</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>35</v>
@@ -12750,10 +12754,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -12764,7 +12768,7 @@
         <v>36</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>35</v>
@@ -12773,16 +12777,16 @@
         <v>35</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -12833,19 +12837,19 @@
         <v>35</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI102" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>35</v>
@@ -12862,10 +12866,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -12876,7 +12880,7 @@
         <v>36</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>35</v>
@@ -12885,16 +12889,16 @@
         <v>35</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
@@ -12945,19 +12949,19 @@
         <v>35</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>35</v>
@@ -12974,10 +12978,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -12988,7 +12992,7 @@
         <v>36</v>
       </c>
       <c r="G104" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H104" t="s" s="2">
         <v>35</v>
@@ -13000,13 +13004,13 @@
         <v>35</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -13057,13 +13061,13 @@
         <v>35</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI104" t="s" s="2">
         <v>35</v>
@@ -13075,7 +13079,7 @@
         <v>35</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AM104" t="s" s="2">
         <v>35</v>
@@ -13086,14 +13090,14 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
@@ -13112,16 +13116,16 @@
         <v>35</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
@@ -13171,7 +13175,7 @@
         <v>35</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>36</v>
@@ -13183,13 +13187,13 @@
         <v>35</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AK105" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AM105" t="s" s="2">
         <v>35</v>
@@ -13200,14 +13204,14 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
@@ -13220,25 +13224,25 @@
         <v>35</v>
       </c>
       <c r="I106" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O106" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P106" t="s" s="2">
         <v>35</v>
@@ -13287,7 +13291,7 @@
         <v>35</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>36</v>
@@ -13299,13 +13303,13 @@
         <v>35</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AK106" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AM106" t="s" s="2">
         <v>35</v>
@@ -13316,10 +13320,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -13327,10 +13331,10 @@
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G107" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H107" t="s" s="2">
         <v>35</v>
@@ -13339,16 +13343,16 @@
         <v>35</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
@@ -13399,19 +13403,19 @@
         <v>35</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AH107" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI107" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK107" t="s" s="2">
         <v>35</v>
@@ -13428,10 +13432,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -13442,7 +13446,7 @@
         <v>36</v>
       </c>
       <c r="G108" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H108" t="s" s="2">
         <v>35</v>
@@ -13451,16 +13455,16 @@
         <v>35</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" s="2"/>
@@ -13511,19 +13515,19 @@
         <v>35</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH108" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI108" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK108" t="s" s="2">
         <v>35</v>
@@ -13540,10 +13544,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -13554,7 +13558,7 @@
         <v>36</v>
       </c>
       <c r="G109" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H109" t="s" s="2">
         <v>35</v>
@@ -13563,19 +13567,19 @@
         <v>35</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
@@ -13625,19 +13629,19 @@
         <v>35</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH109" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI109" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK109" t="s" s="2">
         <v>35</v>
@@ -13654,10 +13658,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -13668,7 +13672,7 @@
         <v>36</v>
       </c>
       <c r="G110" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H110" t="s" s="2">
         <v>35</v>
@@ -13677,19 +13681,19 @@
         <v>35</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O110" s="2"/>
       <c r="P110" t="s" s="2">
@@ -13739,19 +13743,19 @@
         <v>35</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH110" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI110" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK110" t="s" s="2">
         <v>35</v>
@@ -13768,10 +13772,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -13782,7 +13786,7 @@
         <v>36</v>
       </c>
       <c r="G111" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H111" t="s" s="2">
         <v>35</v>
@@ -13791,19 +13795,19 @@
         <v>35</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O111" s="2"/>
       <c r="P111" t="s" s="2">
@@ -13853,13 +13857,13 @@
         <v>35</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH111" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI111" t="s" s="2">
         <v>35</v>
@@ -13882,10 +13886,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -13896,7 +13900,7 @@
         <v>36</v>
       </c>
       <c r="G112" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H112" t="s" s="2">
         <v>35</v>
@@ -13905,22 +13909,22 @@
         <v>35</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="O112" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="P112" t="s" s="2">
         <v>35</v>
@@ -13969,19 +13973,19 @@
         <v>35</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH112" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI112" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK112" t="s" s="2">
         <v>35</v>

--- a/ig/nr-prepare-release/StructureDefinition-pdsm-find-lists-response.xlsx
+++ b/ig/nr-prepare-release/StructureDefinition-pdsm-find-lists-response.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-01T08:02:25+00:00</t>
+    <t>2023-10-11T07:59:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
